--- a/output/aggregate_tables/Analysis Group Statistics/Area 51_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 51_summary.xlsx
@@ -22,7 +22,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -156,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -179,6 +181,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +627,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>104</v>
@@ -633,28 +636,28 @@
         <v>192</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>296</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.08067940552017</v>
+        <v>22.12765957446808</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>40.76433121019109</v>
+        <v>40.85106382978723</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>62.84501061571125</v>
+        <v>62.97872340425532</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>38</v>
@@ -837,28 +840,28 @@
         <v>83</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>121</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.54054054054054</v>
+        <v>20.65217391304348</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>44.86486486486487</v>
+        <v>45.10869565217391</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>34.5945945945946</v>
+        <v>34.23913043478261</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>65.4054054054054</v>
+        <v>65.76086956521739</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>34.5945945945946</v>
+        <v>34.23913043478261</v>
       </c>
     </row>
     <row r="5">
@@ -871,7 +874,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>104</v>
@@ -880,28 +883,28 @@
         <v>192</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>296</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.08067940552017</v>
+        <v>22.12765957446808</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>40.76433121019109</v>
+        <v>40.85106382978723</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>62.84501061571125</v>
+        <v>62.97872340425532</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
     </row>
   </sheetData>
@@ -989,16 +992,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1011,16 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1205,13 +1208,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>38</v>
@@ -1220,28 +1223,28 @@
         <v>83</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>121</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>20.54054054054054</v>
+        <v>20.65217391304348</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>44.86486486486487</v>
+        <v>45.10869565217391</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>34.5945945945946</v>
+        <v>34.23913043478261</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>65.4054054054054</v>
+        <v>65.76086956521739</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>34.5945945945946</v>
+        <v>34.23913043478261</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1254,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>104</v>
@@ -1266,28 +1269,28 @@
         <v>192</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>296</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>22.08067940552017</v>
+        <v>22.12765957446808</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>40.76433121019109</v>
+        <v>40.85106382978723</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>62.84501061571125</v>
+        <v>62.97872340425532</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +1500,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>104</v>
@@ -1506,40 +1509,62 @@
         <v>192</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>296</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.08067940552017</v>
+        <v>22.12765957446808</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>40.76433121019109</v>
+        <v>40.85106382978723</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>37.15498938428875</v>
+        <v>37.02127659574468</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>62.84501061571125</v>
+        <v>62.97872340425532</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>37.15498938428875</v>
-      </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+        <v>37.02127659574468</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>37.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1658,34 +1683,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.9774247007087546</v>
+        <v>0.8920342950285537</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.638884140029289</v>
+        <v>1.560156043166096</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.701523358261956</v>
+        <v>1.018765512657581</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.616308840738044</v>
+        <v>2.452190338194649</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.701523358261956</v>
+        <v>1.018765512657581</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>22.63693111870174</v>
+        <v>25.6999608568784</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.95617950157607</v>
+        <v>44.94888757467277</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844882</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>60.59311062027781</v>
+        <v>70.64884843155117</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844882</v>
       </c>
     </row>
   </sheetData>
@@ -1803,34 +1828,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.3716849310748451</v>
+        <v>0.3438077287654954</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.6925594775553312</v>
+        <v>0.6037363359700455</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.755688944669708</v>
+        <v>0.7354220041879268</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.064244408630176</v>
+        <v>0.9475440647355409</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.755688944669708</v>
+        <v>0.7354220041879268</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>20.42299683122516</v>
+        <v>20.42867857611751</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.05411205303697</v>
+        <v>35.87335164494635</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>41.52289111573787</v>
+        <v>43.69796977893616</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>58.47710888426213</v>
+        <v>56.30203022106385</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>41.52289111573787</v>
+        <v>43.69796977893616</v>
       </c>
     </row>
     <row r="5">
@@ -1838,69 +1863,69 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.4648254227203347</v>
+        <v>0.4513514611564903</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.7192547722456943</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.116315103005195</v>
+        <v>0.6767266599576348</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <v>0.09539495888804275</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.184080194966029</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.116315103005195</v>
+        <v>1.128078121114125</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>0.09539495888804275</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>35.7449325943826</v>
+        <v>36.89100058954224</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.31047162103862</v>
+        <v>55.31193706006476</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.944595784578796</v>
+        <v>7.797062350393008</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>91.05540421542122</v>
+        <v>92.20293764960701</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.944595784578796</v>
+        <v>7.797062350393008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0.1409143469135748</v>
+      <c r="B6" s="12" t="n">
+        <v>0.09687510510656804</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.2270698902282635</v>
+        <v>0.2796930472384151</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.8295193105870534</v>
+        <v>0.1879485495816111</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.3679842371418383</v>
+        <v>0.3765681523449831</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.8295193105870534</v>
+        <v>0.1879485495816111</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.76734275074374</v>
+        <v>17.1607154891876</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>18.96193883173955</v>
+        <v>49.54557522990425</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>69.27071841751673</v>
+        <v>33.29370928090814</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>30.72928158248329</v>
+        <v>66.70629071909185</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>69.27071841751673</v>
+        <v>33.29370928090814</v>
       </c>
     </row>
     <row r="7">
@@ -1910,34 +1935,34 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.9774247007087546</v>
+        <v>0.8920342950285537</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.638884140029289</v>
+        <v>1.560156043166095</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.701523358261956</v>
+        <v>1.018765512657581</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>2.616308840738043</v>
+        <v>2.452190338194649</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1.701523358261956</v>
+        <v>1.018765512657581</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>22.63693111870174</v>
+        <v>25.6999608568784</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>37.95617950157606</v>
+        <v>44.94888757467277</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844883</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>60.5931106202778</v>
+        <v>70.64884843155117</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844883</v>
       </c>
     </row>
   </sheetData>
@@ -2057,34 +2082,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.63693111870174</v>
+        <v>25.6999608568784</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>37.95617950157607</v>
+        <v>44.94888757467277</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844882</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>60.59311062027781</v>
+        <v>70.64884843155117</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844882</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.308967266794347</v>
+        <v>7.585761214524217</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>70.41632166162654</v>
+        <v>70.8807545577062</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.27471107157911</v>
+        <v>21.5334842277696</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>77.72528892842089</v>
+        <v>78.46651577223041</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>22.27471107157911</v>
+        <v>21.5334842277696</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 51_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 51_summary.xlsx
@@ -2097,19 +2097,19 @@
         <v>29.35115156844882</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.585761214524217</v>
+        <v>7.013971246565509</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>70.8807545577062</v>
+        <v>64.54719752949582</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.5334842277696</v>
+        <v>28.43883122393868</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>78.46651577223041</v>
+        <v>71.56116877606132</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>21.5334842277696</v>
+        <v>28.43883122393868</v>
       </c>
     </row>
   </sheetData>
